--- a/outputs-GTDB-r202/p__Firmicutes_A.xlsx
+++ b/outputs-GTDB-r202/p__Firmicutes_A.xlsx
@@ -1225,7 +1225,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia(reject)</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>c__Clostridia_A</t>
+          <t>c__Clostridia_A(reject)</t>
         </is>
       </c>
     </row>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>c__Clostridia_A</t>
+          <t>c__Clostridia_A(reject)</t>
         </is>
       </c>
     </row>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>c__Clostridia_A</t>
+          <t>c__Clostridia_A(reject)</t>
         </is>
       </c>
     </row>
@@ -12254,7 +12254,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia(reject)</t>
         </is>
       </c>
     </row>
@@ -14099,7 +14099,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia(reject)</t>
         </is>
       </c>
     </row>
@@ -15862,7 +15862,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia(reject)</t>
         </is>
       </c>
     </row>
